--- a/input/AMAZON_SCENARIO_8.xlsx
+++ b/input/AMAZON_SCENARIO_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935DF57-B1EC-D74A-B02C-58D76E6DF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A61BB-7E20-7A46-BFA6-DC566F9F8224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -754,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/input/AMAZON_SCENARIO_8.xlsx
+++ b/input/AMAZON_SCENARIO_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A61BB-7E20-7A46-BFA6-DC566F9F8224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C89503E-481F-D343-83FF-83C5AB3E9680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Variables</t>
   </si>
@@ -145,9 +145,6 @@
     <t>MARKET_QUOTA</t>
   </si>
   <si>
-    <t>FRIEND_RECOMMENDATION</t>
-  </si>
-  <si>
     <t>SAVED_AGENT_DECISIONS</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>SCENARIO_START</t>
+  </si>
+  <si>
+    <t>WOM</t>
+  </si>
+  <si>
+    <t>COMPRESSED_RESULTS</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F1E5B-209D-BA4A-9A57-BB6890C684CF}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -754,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="11">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -791,7 +794,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -799,7 +802,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="11">
         <v>8</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11">
         <v>100</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11">
         <v>100</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="11">
         <v>-1</v>
@@ -839,7 +842,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11">
         <v>-1</v>
@@ -847,9 +850,17 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="11">
         <v>1</v>
       </c>
     </row>
@@ -918,7 +929,7 @@
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O2" s="12"/>
     </row>
@@ -1075,7 +1086,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>0.28499999999999998</v>
@@ -1704,7 +1715,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9">
         <v>5.29</v>
@@ -1868,7 +1879,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>98.8</v>

--- a/input/AMAZON_SCENARIO_8.xlsx
+++ b/input/AMAZON_SCENARIO_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pleger/Documents/Projects/ChinaSimulatioN_V2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C89503E-481F-D343-83FF-83C5AB3E9680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE2D09-FA58-554F-A2FB-A25CB3200F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="17500" xr2:uid="{B078D86E-CB7D-D145-8E1E-BF1E3C336D06}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
